--- a/biology/Zoologie/Bombyliidae/Bombyliidae.xlsx
+++ b/biology/Zoologie/Bombyliidae/Bombyliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombylidae · Bombyliidé
 Bombyliidae (les bombyliidés) est une famille d'insectes diptères brachycères asilomorphes.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille regroupe des mouches très poilues qui semblent recouvertes de fourrure. Certaines espèces (comme celles du genre Bombylius) possèdent une trompe allongée qui leur permet de pomper le nectar en vol stationnaire.
 </t>
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette famille comprend entre autres les genres et espèces :
 Anthrax : Anthrax anthrax
@@ -577,7 +593,9 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ITIS :
 sous-famille Anthracinae
